--- a/Daily/Forecast/Non-Stationarity/Log-Price/fast_retailing.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Log-Price/fast_retailing.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,41 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="C2">
-        <v>10.47592641974342</v>
+        <v>10.52369009736167</v>
       </c>
       <c r="D2">
-        <v>10.14001576520825</v>
+        <v>10.17994083091317</v>
       </c>
       <c r="E2">
-        <v>10.81183707427859</v>
+        <v>10.86743936381018</v>
       </c>
       <c r="F2">
-        <v>10.47953896121983</v>
+        <v>10.5099869263704</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B3">
+        <v>2585</v>
+      </c>
+      <c r="C3">
+        <v>10.51046174469686</v>
+      </c>
+      <c r="D3">
+        <v>10.16677856885414</v>
+      </c>
+      <c r="E3">
+        <v>10.85414492053958</v>
+      </c>
+      <c r="F3">
+        <v>10.51921358612749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B4">
+        <v>2586</v>
+      </c>
+      <c r="C4">
+        <v>10.51886920188347</v>
+      </c>
+      <c r="D4">
+        <v>10.17525232030187</v>
+      </c>
+      <c r="E4">
+        <v>10.86248608346507</v>
+      </c>
+      <c r="F4">
+        <v>10.52433282134067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5">
+        <v>10.52410810549153</v>
+      </c>
+      <c r="D5">
+        <v>10.18055757359945</v>
+      </c>
+      <c r="E5">
+        <v>10.86765863738362</v>
+      </c>
+      <c r="F5">
+        <v>10.51596683002862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B6">
+        <v>2588</v>
+      </c>
+      <c r="C6">
+        <v>10.51623873989803</v>
+      </c>
+      <c r="D6">
+        <v>10.17275444718138</v>
+      </c>
+      <c r="E6">
+        <v>10.85972303261468</v>
+      </c>
+      <c r="F6">
+        <v>10.49182961872995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B7">
+        <v>2589</v>
+      </c>
+      <c r="C7">
+        <v>10.49269091962185</v>
+      </c>
+      <c r="D7">
+        <v>10.14927167973217</v>
+      </c>
+      <c r="E7">
+        <v>10.83611015951154</v>
+      </c>
+      <c r="F7">
+        <v>10.48542380376007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B8">
+        <v>2590</v>
+      </c>
+      <c r="C8">
+        <v>10.48564505801184</v>
+      </c>
+      <c r="D8">
+        <v>10.14229192654548</v>
+      </c>
+      <c r="E8">
+        <v>10.82899818947819</v>
+      </c>
+      <c r="F8">
+        <v>10.48430554812215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B9">
+        <v>2591</v>
+      </c>
+      <c r="C9">
+        <v>10.48432997369155</v>
+      </c>
+      <c r="D9">
+        <v>10.1410431882081</v>
+      </c>
+      <c r="E9">
+        <v>10.82761675917501</v>
+      </c>
+      <c r="F9">
+        <v>10.50039912521525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B10">
+        <v>2592</v>
+      </c>
+      <c r="C10">
+        <v>10.4997920692313</v>
+      </c>
+      <c r="D10">
+        <v>10.15657095249321</v>
+      </c>
+      <c r="E10">
+        <v>10.84301318596939</v>
+      </c>
+      <c r="F10">
+        <v>10.49543222758691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B11">
+        <v>2593</v>
+      </c>
+      <c r="C11">
+        <v>10.49556566855027</v>
+      </c>
+      <c r="D11">
+        <v>10.15241070027725</v>
+      </c>
+      <c r="E11">
+        <v>10.83872063682329</v>
+      </c>
+      <c r="F11">
+        <v>10.51107684473443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B12">
+        <v>2594</v>
+      </c>
+      <c r="C12">
+        <v>10.51048425166016</v>
+      </c>
+      <c r="D12">
+        <v>10.16739488883998</v>
+      </c>
+      <c r="E12">
+        <v>10.85357361448034</v>
+      </c>
+      <c r="F12">
+        <v>10.51569579059072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B13">
+        <v>2595</v>
+      </c>
+      <c r="C13">
+        <v>10.51548032089438</v>
+      </c>
+      <c r="D13">
+        <v>10.17245702371251</v>
+      </c>
+      <c r="E13">
+        <v>10.85850361807624</v>
+      </c>
+      <c r="F13">
+        <v>10.50862285577286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B14">
+        <v>2596</v>
+      </c>
+      <c r="C14">
+        <v>10.50884718174065</v>
+      </c>
+      <c r="D14">
+        <v>10.16588986472313</v>
+      </c>
+      <c r="E14">
+        <v>10.85180449875817</v>
+      </c>
+      <c r="F14">
+        <v>10.48290596776773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B15">
+        <v>2597</v>
+      </c>
+      <c r="C15">
+        <v>10.4838200692245</v>
+      </c>
+      <c r="D15">
+        <v>10.14092733506354</v>
+      </c>
+      <c r="E15">
+        <v>10.82671280338547</v>
+      </c>
+      <c r="F15">
+        <v>10.45823436336005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B16">
+        <v>2598</v>
+      </c>
+      <c r="C16">
+        <v>10.4591217664018</v>
+      </c>
+      <c r="D16">
+        <v>10.11629362577374</v>
+      </c>
+      <c r="E16">
+        <v>10.80194990702986</v>
+      </c>
+      <c r="F16">
+        <v>10.45045222291799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B17">
+        <v>2599</v>
+      </c>
+      <c r="C17">
+        <v>10.45073466925558</v>
+      </c>
+      <c r="D17">
+        <v>10.10797232591863</v>
+      </c>
+      <c r="E17">
+        <v>10.79349701259254</v>
+      </c>
+      <c r="F17">
+        <v>10.45305300461805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <v>10.45294577312918</v>
+      </c>
+      <c r="D18">
+        <v>10.11024934075775</v>
+      </c>
+      <c r="E18">
+        <v>10.79564220550061</v>
+      </c>
+      <c r="F18">
+        <v>10.45247563739647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B19">
+        <v>2601</v>
+      </c>
+      <c r="C19">
+        <v>10.45246750994406</v>
+      </c>
+      <c r="D19">
+        <v>10.10983696172755</v>
+      </c>
+      <c r="E19">
+        <v>10.79509805816057</v>
+      </c>
+      <c r="F19">
+        <v>10.45909531907401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B20">
+        <v>2602</v>
+      </c>
+      <c r="C20">
+        <v>10.45883520594177</v>
+      </c>
+      <c r="D20">
+        <v>10.11627041002071</v>
+      </c>
+      <c r="E20">
+        <v>10.80140000186283</v>
+      </c>
+      <c r="F20">
+        <v>10.47587853196027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B21">
+        <v>2603</v>
+      </c>
+      <c r="C21">
+        <v>10.47524933844225</v>
+      </c>
+      <c r="D21">
+        <v>10.13274972437995</v>
+      </c>
+      <c r="E21">
+        <v>10.81774895250454</v>
+      </c>
+      <c r="F21">
+        <v>10.45478310885583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B22">
+        <v>2604</v>
+      </c>
+      <c r="C22">
+        <v>10.45548917001681</v>
+      </c>
+      <c r="D22">
+        <v>10.11305440175503</v>
+      </c>
+      <c r="E22">
+        <v>10.79792393827859</v>
+      </c>
+      <c r="F22">
+        <v>10.44173377187811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B23">
+        <v>2605</v>
+      </c>
+      <c r="C23">
+        <v>10.44219708995861</v>
+      </c>
+      <c r="D23">
+        <v>10.09982766992387</v>
+      </c>
+      <c r="E23">
+        <v>10.78456650999335</v>
+      </c>
+      <c r="F23">
+        <v>10.4556470397951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B24">
+        <v>2606</v>
+      </c>
+      <c r="C24">
+        <v>10.45514238440913</v>
+      </c>
+      <c r="D24">
+        <v>10.11283827045225</v>
+      </c>
+      <c r="E24">
+        <v>10.79744649836601</v>
+      </c>
+      <c r="F24">
+        <v>10.43881064790251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B25">
+        <v>2607</v>
+      </c>
+      <c r="C25">
+        <v>10.43936081078772</v>
+      </c>
+      <c r="D25">
+        <v>10.09712174485149</v>
+      </c>
+      <c r="E25">
+        <v>10.78159987672395</v>
+      </c>
+      <c r="F25">
+        <v>10.42998965568713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B26">
+        <v>2608</v>
+      </c>
+      <c r="C26">
+        <v>10.43029626214743</v>
+      </c>
+      <c r="D26">
+        <v>10.08812263980852</v>
+      </c>
+      <c r="E26">
+        <v>10.77246988448634</v>
+      </c>
+      <c r="F26">
+        <v>10.45247563739647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B27">
+        <v>2609</v>
+      </c>
+      <c r="C27">
+        <v>10.45165017653416</v>
+      </c>
+      <c r="D27">
+        <v>10.10954103944813</v>
+      </c>
+      <c r="E27">
+        <v>10.7937593136202</v>
+      </c>
+      <c r="F27">
+        <v>10.43968848263335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B28">
+        <v>2610</v>
+      </c>
+      <c r="C28">
+        <v>10.44009518212557</v>
+      </c>
+      <c r="D28">
+        <v>10.09805134087973</v>
+      </c>
+      <c r="E28">
+        <v>10.78213902337141</v>
+      </c>
+      <c r="F28">
+        <v>10.44114983025568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B29">
+        <v>2611</v>
+      </c>
+      <c r="C29">
+        <v>10.44108706874675</v>
+      </c>
+      <c r="D29">
+        <v>10.099108731672</v>
+      </c>
+      <c r="E29">
+        <v>10.78306540582151</v>
+      </c>
+      <c r="F29">
+        <v>10.46052860009908</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B30">
+        <v>2612</v>
+      </c>
+      <c r="C30">
+        <v>10.4598029606998</v>
+      </c>
+      <c r="D30">
+        <v>10.11788928054088</v>
+      </c>
+      <c r="E30">
+        <v>10.80171664085872</v>
+      </c>
+      <c r="F30">
+        <v>10.4593821396697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B31">
+        <v>2613</v>
+      </c>
+      <c r="C31">
+        <v>10.45937264846095</v>
+      </c>
+      <c r="D31">
+        <v>10.11752439985729</v>
+      </c>
+      <c r="E31">
+        <v>10.8012208970646</v>
+      </c>
+      <c r="F31">
+        <v>10.47897668962784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B32">
+        <v>2614</v>
+      </c>
+      <c r="C32">
+        <v>10.47824476519737</v>
+      </c>
+      <c r="D32">
+        <v>10.13646108119997</v>
+      </c>
+      <c r="E32">
+        <v>10.82002844919476</v>
+      </c>
+      <c r="F32">
+        <v>10.48932788010756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B33">
+        <v>2615</v>
+      </c>
+      <c r="C33">
+        <v>10.48889816129188</v>
+      </c>
+      <c r="D33">
+        <v>10.14717953622165</v>
+      </c>
+      <c r="E33">
+        <v>10.83061678636211</v>
+      </c>
+      <c r="F33">
+        <v>10.44958379038404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B34">
+        <v>2616</v>
+      </c>
+      <c r="C34">
+        <v>10.45098119096192</v>
+      </c>
+      <c r="D34">
+        <v>10.10932459123661</v>
+      </c>
+      <c r="E34">
+        <v>10.79263779068723</v>
+      </c>
+      <c r="F34">
+        <v>10.43822499634843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B35">
+        <v>2617</v>
+      </c>
+      <c r="C35">
+        <v>10.43865714398111</v>
+      </c>
+      <c r="D35">
+        <v>10.09706548619158</v>
+      </c>
+      <c r="E35">
+        <v>10.78024880177065</v>
+      </c>
+      <c r="F35">
+        <v>10.43499776749495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B36">
+        <v>2618</v>
+      </c>
+      <c r="C36">
+        <v>10.43510262497696</v>
+      </c>
+      <c r="D36">
+        <v>10.09357617453035</v>
+      </c>
+      <c r="E36">
+        <v>10.77662907542356</v>
+      </c>
+      <c r="F36">
+        <v>10.42792017970834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B37">
+        <v>2619</v>
+      </c>
+      <c r="C37">
+        <v>10.42815272737085</v>
+      </c>
+      <c r="D37">
+        <v>10.0866913828511</v>
+      </c>
+      <c r="E37">
+        <v>10.7696140718906</v>
+      </c>
+      <c r="F37">
+        <v>10.43264413298684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B38">
+        <v>2620</v>
+      </c>
+      <c r="C38">
+        <v>10.43245740675719</v>
+      </c>
+      <c r="D38">
+        <v>10.09106118326287</v>
+      </c>
+      <c r="E38">
+        <v>10.77385363025151</v>
+      </c>
+      <c r="F38">
+        <v>10.43058014876599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B39">
+        <v>2621</v>
+      </c>
+      <c r="C39">
+        <v>10.4306130265121</v>
+      </c>
+      <c r="D39">
+        <v>10.08928187168068</v>
+      </c>
+      <c r="E39">
+        <v>10.77194418134351</v>
+      </c>
+      <c r="F39">
+        <v>10.44871460301945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B40">
+        <v>2622</v>
+      </c>
+      <c r="C40">
+        <v>10.44804022462084</v>
+      </c>
+      <c r="D40">
+        <v>10.10677352392884</v>
+      </c>
+      <c r="E40">
+        <v>10.78930692531284</v>
+      </c>
+      <c r="F40">
+        <v>10.42198368260634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B41">
+        <v>2623</v>
+      </c>
+      <c r="C41">
+        <v>10.42290170130738</v>
+      </c>
+      <c r="D41">
+        <v>10.08169860326091</v>
+      </c>
+      <c r="E41">
+        <v>10.76410479935385</v>
+      </c>
+      <c r="F41">
+        <v>10.43881064790251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B42">
+        <v>2624</v>
+      </c>
+      <c r="C42">
+        <v>10.43820559310296</v>
+      </c>
+      <c r="D42">
+        <v>10.09706697094085</v>
+      </c>
+      <c r="E42">
+        <v>10.77934421526508</v>
+      </c>
+      <c r="F42">
+        <v>10.41989755459602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B43">
+        <v>2625</v>
+      </c>
+      <c r="C43">
+        <v>10.42054115791161</v>
+      </c>
+      <c r="D43">
+        <v>10.07946679671365</v>
+      </c>
+      <c r="E43">
+        <v>10.76161551910957</v>
+      </c>
+      <c r="F43">
+        <v>10.40486871747412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B44">
+        <v>2626</v>
+      </c>
+      <c r="C44">
+        <v>10.40541379396751</v>
+      </c>
+      <c r="D44">
+        <v>10.06440385043295</v>
+      </c>
+      <c r="E44">
+        <v>10.74642373750206</v>
+      </c>
+      <c r="F44">
+        <v>10.39329380907804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B45">
+        <v>2627</v>
+      </c>
+      <c r="C45">
+        <v>10.39370999977887</v>
+      </c>
+      <c r="D45">
+        <v>10.0527646655759</v>
+      </c>
+      <c r="E45">
+        <v>10.73465533398185</v>
+      </c>
+      <c r="F45">
+        <v>10.40638180597584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>10.40589476687653</v>
+      </c>
+      <c r="D46">
+        <v>10.06501396178053</v>
+      </c>
+      <c r="E46">
+        <v>10.74677557197254</v>
+      </c>
+      <c r="F46">
+        <v>10.40395976422263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B47">
+        <v>2629</v>
+      </c>
+      <c r="C47">
+        <v>10.40399797332401</v>
+      </c>
+      <c r="D47">
+        <v>10.06318195539127</v>
+      </c>
+      <c r="E47">
+        <v>10.74481399125674</v>
+      </c>
+      <c r="F47">
+        <v>10.411810046084</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B48">
+        <v>2630</v>
+      </c>
+      <c r="C48">
+        <v>10.4114995315861</v>
+      </c>
+      <c r="D48">
+        <v>10.07074822400252</v>
+      </c>
+      <c r="E48">
+        <v>10.75225083916967</v>
+      </c>
+      <c r="F48">
+        <v>10.42198368260634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B49">
+        <v>2631</v>
+      </c>
+      <c r="C49">
+        <v>10.42157692531843</v>
+      </c>
+      <c r="D49">
+        <v>10.0808901473248</v>
+      </c>
+      <c r="E49">
+        <v>10.76226370331206</v>
+      </c>
+      <c r="F49">
+        <v>10.39114689827028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B50">
+        <v>2632</v>
+      </c>
+      <c r="C50">
+        <v>10.39224495627291</v>
+      </c>
+      <c r="D50">
+        <v>10.05162091543553</v>
+      </c>
+      <c r="E50">
+        <v>10.7328689971103</v>
+      </c>
+      <c r="F50">
+        <v>10.40698640091566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>10.40641601988016</v>
+      </c>
+      <c r="D51">
+        <v>10.0658562039785</v>
+      </c>
+      <c r="E51">
+        <v>10.74697583578182</v>
+      </c>
+      <c r="F51">
+        <v>10.41120836134864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B52">
+        <v>2634</v>
+      </c>
+      <c r="C52">
+        <v>10.41100657973382</v>
+      </c>
+      <c r="D52">
+        <v>10.07051137273079</v>
+      </c>
+      <c r="E52">
+        <v>10.75150178673686</v>
+      </c>
+      <c r="F52">
+        <v>10.40486871747412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B53">
+        <v>2635</v>
+      </c>
+      <c r="C53">
+        <v>10.40507140326145</v>
+      </c>
+      <c r="D53">
+        <v>10.06464073175952</v>
+      </c>
+      <c r="E53">
+        <v>10.74550207476337</v>
+      </c>
+      <c r="F53">
+        <v>10.41870352460341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B54">
+        <v>2636</v>
+      </c>
+      <c r="C54">
+        <v>10.41817177420757</v>
+      </c>
+      <c r="D54">
+        <v>10.077805280932</v>
+      </c>
+      <c r="E54">
+        <v>10.75853826748315</v>
+      </c>
+      <c r="F54">
+        <v>10.41421317130179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B55">
+        <v>2637</v>
+      </c>
+      <c r="C55">
+        <v>10.41433564881077</v>
+      </c>
+      <c r="D55">
+        <v>10.07403366831468</v>
+      </c>
+      <c r="E55">
+        <v>10.75463762930687</v>
+      </c>
+      <c r="F55">
+        <v>10.42939881372016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B56">
+        <v>2638</v>
+      </c>
+      <c r="C56">
+        <v>10.42881338332946</v>
+      </c>
+      <c r="D56">
+        <v>10.08857542398927</v>
+      </c>
+      <c r="E56">
+        <v>10.76905134266965</v>
+      </c>
+      <c r="F56">
+        <v>10.42910326177475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B57">
+        <v>2639</v>
+      </c>
+      <c r="C57">
+        <v>10.42906736903849</v>
+      </c>
+      <c r="D57">
+        <v>10.08889387463582</v>
+      </c>
+      <c r="E57">
+        <v>10.76924086344116</v>
+      </c>
+      <c r="F57">
+        <v>10.43734587541269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B58">
+        <v>2640</v>
+      </c>
+      <c r="C58">
+        <v>10.43701534388751</v>
+      </c>
+      <c r="D58">
+        <v>10.09690613940156</v>
+      </c>
+      <c r="E58">
+        <v>10.77712454837346</v>
+      </c>
+      <c r="F58">
+        <v>10.43851786499894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B59">
+        <v>2641</v>
+      </c>
+      <c r="C59">
+        <v>10.43841596051373</v>
+      </c>
+      <c r="D59">
+        <v>10.09837100256389</v>
+      </c>
+      <c r="E59">
+        <v>10.77846091846356</v>
+      </c>
+      <c r="F59">
+        <v>10.42584641211579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B60">
+        <v>2642</v>
+      </c>
+      <c r="C60">
+        <v>10.42629000297221</v>
+      </c>
+      <c r="D60">
+        <v>10.08630921092729</v>
+      </c>
+      <c r="E60">
+        <v>10.76627079501713</v>
+      </c>
+      <c r="F60">
+        <v>10.42109016058114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B61">
+        <v>2643</v>
+      </c>
+      <c r="C61">
+        <v>10.42125850828926</v>
+      </c>
+      <c r="D61">
+        <v>10.08134198233918</v>
+      </c>
+      <c r="E61">
+        <v>10.76117503423934</v>
+      </c>
+      <c r="F61">
+        <v>10.43264413298684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B62">
+        <v>2644</v>
+      </c>
+      <c r="C62">
+        <v>10.43219677785989</v>
+      </c>
+      <c r="D62">
+        <v>10.09234426059752</v>
+      </c>
+      <c r="E62">
+        <v>10.77204929512225</v>
+      </c>
+      <c r="F62">
+        <v>10.43763900160562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B63">
+        <v>2645</v>
+      </c>
+      <c r="C63">
+        <v>10.43741170414933</v>
+      </c>
+      <c r="D63">
+        <v>10.09762336902924</v>
+      </c>
+      <c r="E63">
+        <v>10.77720003926942</v>
+      </c>
+      <c r="F63">
+        <v>10.46681074525987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B64">
+        <v>2646</v>
+      </c>
+      <c r="C64">
+        <v>10.46569856665463</v>
+      </c>
+      <c r="D64">
+        <v>10.12597260473152</v>
+      </c>
+      <c r="E64">
+        <v>10.80542452857775</v>
+      </c>
+      <c r="F64">
+        <v>10.46766435179911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B65">
+        <v>2647</v>
+      </c>
+      <c r="C65">
+        <v>10.46756710578106</v>
+      </c>
+      <c r="D65">
+        <v>10.1279053135108</v>
+      </c>
+      <c r="E65">
+        <v>10.80722889805132</v>
+      </c>
+      <c r="F65">
+        <v>10.4556470397951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B66">
+        <v>2648</v>
+      </c>
+      <c r="C66">
+        <v>10.45606344090943</v>
+      </c>
+      <c r="D66">
+        <v>10.11646548500575</v>
+      </c>
+      <c r="E66">
+        <v>10.79566139681311</v>
+      </c>
+      <c r="F66">
+        <v>10.45449496593495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B67">
+        <v>2649</v>
+      </c>
+      <c r="C67">
+        <v>10.45452847910596</v>
+      </c>
+      <c r="D67">
+        <v>10.11499462588315</v>
+      </c>
+      <c r="E67">
+        <v>10.79406233232876</v>
+      </c>
+      <c r="F67">
+        <v>10.4434835536019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B68">
+        <v>2650</v>
+      </c>
+      <c r="C68">
+        <v>10.44386707851477</v>
+      </c>
+      <c r="D68">
+        <v>10.10439703295931</v>
+      </c>
+      <c r="E68">
+        <v>10.78333712407022</v>
+      </c>
+      <c r="F68">
+        <v>10.43470386594985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B69">
+        <v>2651</v>
+      </c>
+      <c r="C69">
+        <v>10.43501638724143</v>
+      </c>
+      <c r="D69">
+        <v>10.0956101912064</v>
+      </c>
+      <c r="E69">
+        <v>10.77442258327646</v>
+      </c>
+      <c r="F69">
+        <v>10.4341158035983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B70">
+        <v>2652</v>
+      </c>
+      <c r="C70">
+        <v>10.43412203819329</v>
+      </c>
+      <c r="D70">
+        <v>10.09477982547648</v>
+      </c>
+      <c r="E70">
+        <v>10.77346425091011</v>
+      </c>
+      <c r="F70">
+        <v>10.4240654677448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B71">
+        <v>2653</v>
+      </c>
+      <c r="C71">
+        <v>10.42441140631473</v>
+      </c>
+      <c r="D71">
+        <v>10.0851329531164</v>
+      </c>
+      <c r="E71">
+        <v>10.76368985951306</v>
+      </c>
+      <c r="F71">
+        <v>10.40879799561401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B72">
+        <v>2654</v>
+      </c>
+      <c r="C72">
+        <v>10.4093469151765</v>
+      </c>
+      <c r="D72">
+        <v>10.07013186733769</v>
+      </c>
+      <c r="E72">
+        <v>10.74856196301531</v>
+      </c>
+      <c r="F72">
+        <v>10.3899180194674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B73">
+        <v>2655</v>
+      </c>
+      <c r="C73">
+        <v>10.39060211218843</v>
+      </c>
+      <c r="D73">
+        <v>10.05145014592371</v>
+      </c>
+      <c r="E73">
+        <v>10.72975407845315</v>
+      </c>
+      <c r="F73">
+        <v>10.39176077183161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B74">
+        <v>2656</v>
+      </c>
+      <c r="C74">
+        <v>10.39169407555113</v>
+      </c>
+      <c r="D74">
+        <v>10.05260596011711</v>
+      </c>
+      <c r="E74">
+        <v>10.73078219098514</v>
+      </c>
+      <c r="F74">
+        <v>10.38807186509689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B75">
+        <v>2657</v>
+      </c>
+      <c r="C75">
+        <v>10.38817957576476</v>
+      </c>
+      <c r="D75">
+        <v>10.04915524786412</v>
+      </c>
+      <c r="E75">
+        <v>10.72720390366541</v>
+      </c>
+      <c r="F75">
+        <v>10.37286598638794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B76">
+        <v>2658</v>
+      </c>
+      <c r="C76">
+        <v>10.37339912912858</v>
+      </c>
+      <c r="D76">
+        <v>10.03443808097167</v>
+      </c>
+      <c r="E76">
+        <v>10.71236017728548</v>
+      </c>
+      <c r="F76">
+        <v>10.35328847446434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B77">
+        <v>2659</v>
+      </c>
+      <c r="C77">
+        <v>10.35399089056891</v>
+      </c>
+      <c r="D77">
+        <v>10.01509272304822</v>
+      </c>
+      <c r="E77">
+        <v>10.69288905808959</v>
+      </c>
+      <c r="F77">
+        <v>10.36564800432084</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B78">
+        <v>2660</v>
+      </c>
+      <c r="C78">
+        <v>10.3651993609528</v>
+      </c>
+      <c r="D78">
+        <v>10.02636461549366</v>
+      </c>
+      <c r="E78">
+        <v>10.70403410641194</v>
+      </c>
+      <c r="F78">
+        <v>10.35932886796936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B79">
+        <v>2661</v>
+      </c>
+      <c r="C79">
+        <v>10.35951832627143</v>
+      </c>
+      <c r="D79">
+        <v>10.02074718051116</v>
+      </c>
+      <c r="E79">
+        <v>10.69828947203169</v>
+      </c>
+      <c r="F79">
+        <v>10.39451854897394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B80">
+        <v>2662</v>
+      </c>
+      <c r="C80">
+        <v>10.39321308990643</v>
+      </c>
+      <c r="D80">
+        <v>10.05450297160415</v>
+      </c>
+      <c r="E80">
+        <v>10.73192320820871</v>
+      </c>
+      <c r="F80">
+        <v>10.41451315630479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B81">
+        <v>2663</v>
+      </c>
+      <c r="C81">
+        <v>10.41372708478158</v>
+      </c>
+      <c r="D81">
+        <v>10.07507958525972</v>
+      </c>
+      <c r="E81">
+        <v>10.75237458430344</v>
+      </c>
+      <c r="F81">
+        <v>10.42673569630068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B82">
+        <v>2664</v>
+      </c>
+      <c r="C82">
+        <v>10.42624579687729</v>
+      </c>
+      <c r="D82">
+        <v>10.08766152040692</v>
+      </c>
+      <c r="E82">
+        <v>10.76483007334767</v>
+      </c>
+      <c r="F82">
+        <v>10.48262581648421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B83">
+        <v>2665</v>
+      </c>
+      <c r="C83">
+        <v>10.4806152874363</v>
+      </c>
+      <c r="D83">
+        <v>10.14208777507608</v>
+      </c>
+      <c r="E83">
+        <v>10.81914279979653</v>
+      </c>
+      <c r="F83">
+        <v>10.46338901394871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B84">
+        <v>2666</v>
+      </c>
+      <c r="C84">
+        <v>10.46398155346674</v>
+      </c>
+      <c r="D84">
+        <v>10.12551689981615</v>
+      </c>
+      <c r="E84">
+        <v>10.80244620711733</v>
+      </c>
+      <c r="F84">
+        <v>10.47163824292139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B85">
+        <v>2667</v>
+      </c>
+      <c r="C85">
+        <v>10.47133808447697</v>
+      </c>
+      <c r="D85">
+        <v>10.13293677336127</v>
+      </c>
+      <c r="E85">
+        <v>10.80973939559267</v>
+      </c>
+      <c r="F85">
+        <v>10.47192148892243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B86">
+        <v>2668</v>
+      </c>
+      <c r="C86">
+        <v>10.47187511548315</v>
+      </c>
+      <c r="D86">
+        <v>10.13353722215694</v>
+      </c>
+      <c r="E86">
+        <v>10.81021300880936</v>
+      </c>
+      <c r="F86">
+        <v>10.44464837609819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B87">
+        <v>2669</v>
+      </c>
+      <c r="C87">
+        <v>10.44560616103592</v>
+      </c>
+      <c r="D87">
+        <v>10.10733008490577</v>
+      </c>
+      <c r="E87">
+        <v>10.78388223716608</v>
+      </c>
+      <c r="F87">
+        <v>10.42939881372016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B88">
+        <v>2670</v>
+      </c>
+      <c r="C88">
+        <v>10.4299532036786</v>
+      </c>
+      <c r="D88">
+        <v>10.09173992243673</v>
+      </c>
+      <c r="E88">
+        <v>10.76816648492047</v>
+      </c>
+      <c r="F88">
+        <v>10.41361293118772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B89">
+        <v>2671</v>
+      </c>
+      <c r="C89">
+        <v>10.41416256285901</v>
+      </c>
+      <c r="D89">
+        <v>10.07601199511944</v>
+      </c>
+      <c r="E89">
+        <v>10.75231313059858</v>
+      </c>
+      <c r="F89">
+        <v>10.4308752646011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B90">
+        <v>2672</v>
+      </c>
+      <c r="C90">
+        <v>10.43025111310277</v>
+      </c>
+      <c r="D90">
+        <v>10.09216325988931</v>
+      </c>
+      <c r="E90">
+        <v>10.76833896631624</v>
+      </c>
+      <c r="F90">
+        <v>10.43440987800124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B91">
+        <v>2673</v>
+      </c>
+      <c r="C91">
+        <v>10.43423710198157</v>
+      </c>
+      <c r="D91">
+        <v>10.09621247082737</v>
+      </c>
+      <c r="E91">
+        <v>10.77226173313577</v>
+      </c>
+      <c r="F91">
+        <v>10.40849629098055</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B92">
+        <v>2674</v>
+      </c>
+      <c r="C92">
+        <v>10.40936784896843</v>
+      </c>
+      <c r="D92">
+        <v>10.07140496293916</v>
+      </c>
+      <c r="E92">
+        <v>10.7473307349977</v>
+      </c>
+      <c r="F92">
+        <v>10.41511285647268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B93">
+        <v>2675</v>
+      </c>
+      <c r="C93">
+        <v>10.41488321511587</v>
+      </c>
+      <c r="D93">
+        <v>10.07698349417739</v>
+      </c>
+      <c r="E93">
+        <v>10.75278293605434</v>
+      </c>
+      <c r="F93">
+        <v>10.40122793675346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B94">
+        <v>2676</v>
+      </c>
+      <c r="C94">
+        <v>10.40169433164792</v>
+      </c>
+      <c r="D94">
+        <v>10.06385735555219</v>
+      </c>
+      <c r="E94">
+        <v>10.73953130774364</v>
+      </c>
+      <c r="F94">
+        <v>10.40486871747412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B95">
+        <v>2677</v>
+      </c>
+      <c r="C95">
+        <v>10.40472959424445</v>
+      </c>
+      <c r="D95">
+        <v>10.06695569895404</v>
+      </c>
+      <c r="E95">
+        <v>10.74250348953487</v>
+      </c>
+      <c r="F95">
+        <v>10.42851189570193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B96">
+        <v>2678</v>
+      </c>
+      <c r="C96">
+        <v>10.42763107860243</v>
+      </c>
+      <c r="D96">
+        <v>10.0899190548765</v>
+      </c>
+      <c r="E96">
+        <v>10.76534310232837</v>
+      </c>
+      <c r="F96">
+        <v>10.43939595666958</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B97">
+        <v>2679</v>
+      </c>
+      <c r="C97">
+        <v>10.43895083036751</v>
+      </c>
+      <c r="D97">
+        <v>10.10130154973123</v>
+      </c>
+      <c r="E97">
+        <v>10.77660011100378</v>
+      </c>
+      <c r="F97">
+        <v>10.45507116877429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B98">
+        <v>2680</v>
+      </c>
+      <c r="C98">
+        <v>10.45447350187206</v>
+      </c>
+      <c r="D98">
+        <v>10.11688666988463</v>
+      </c>
+      <c r="E98">
+        <v>10.79206033385949</v>
+      </c>
+      <c r="F98">
+        <v>10.44581184336149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B99">
+        <v>2681</v>
+      </c>
+      <c r="C99">
+        <v>10.44609578192473</v>
+      </c>
+      <c r="D99">
+        <v>10.10857175277403</v>
+      </c>
+      <c r="E99">
+        <v>10.78361981107543</v>
+      </c>
+      <c r="F99">
+        <v>10.45794721332218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B100">
+        <v>2682</v>
+      </c>
+      <c r="C100">
+        <v>10.4574989590771</v>
+      </c>
+      <c r="D100">
+        <v>10.12003756370185</v>
+      </c>
+      <c r="E100">
+        <v>10.79496035445236</v>
+      </c>
+      <c r="F100">
+        <v>10.4862616756147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B101">
+        <v>2683</v>
+      </c>
+      <c r="C101">
+        <v>10.48521641975956</v>
+      </c>
+      <c r="D101">
+        <v>10.14781616619991</v>
+      </c>
+      <c r="E101">
+        <v>10.82261667331921</v>
+      </c>
+      <c r="F101">
+        <v>10.47953896121983</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>2684</v>
+      </c>
+      <c r="C102">
+        <v>10.47971670238381</v>
+      </c>
+      <c r="D102">
+        <v>10.1423792404183</v>
+      </c>
+      <c r="E102">
+        <v>10.81705416434933</v>
+      </c>
+      <c r="F102">
+        <v>10.47700624564054</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B103">
+        <v>2685</v>
+      </c>
+      <c r="C103">
+        <v>10.47707824878283</v>
+      </c>
+      <c r="D103">
+        <v>10.13980359546096</v>
+      </c>
+      <c r="E103">
+        <v>10.8143529021047</v>
+      </c>
+      <c r="F103">
+        <v>10.48094325859988</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B104">
+        <v>2686</v>
+      </c>
+      <c r="C104">
+        <v>10.4807803025084</v>
+      </c>
+      <c r="D104">
+        <v>10.14356840037192</v>
+      </c>
+      <c r="E104">
+        <v>10.81799220464487</v>
+      </c>
+      <c r="F104">
+        <v>10.51596683002862</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B105">
+        <v>2687</v>
+      </c>
+      <c r="C105">
+        <v>10.51469273471909</v>
+      </c>
+      <c r="D105">
+        <v>10.1775409699932</v>
+      </c>
+      <c r="E105">
+        <v>10.85184449944497</v>
+      </c>
+      <c r="F105">
+        <v>10.51461089761748</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B106">
+        <v>2688</v>
+      </c>
+      <c r="C106">
+        <v>10.51458944804263</v>
+      </c>
+      <c r="D106">
+        <v>10.1775004037095</v>
+      </c>
+      <c r="E106">
+        <v>10.85167849237575</v>
+      </c>
+      <c r="F106">
+        <v>10.51053203404266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B107">
+        <v>2689</v>
+      </c>
+      <c r="C107">
+        <v>10.5106519052088</v>
+      </c>
+      <c r="D107">
+        <v>10.17362551194426</v>
+      </c>
+      <c r="E107">
+        <v>10.84767829847335</v>
+      </c>
+      <c r="F107">
+        <v>10.51379645478707</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B108">
+        <v>2690</v>
+      </c>
+      <c r="C108">
+        <v>10.51365496299127</v>
+      </c>
+      <c r="D108">
+        <v>10.17669116042297</v>
+      </c>
+      <c r="E108">
+        <v>10.85061876555957</v>
+      </c>
+      <c r="F108">
+        <v>10.50643646517793</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B109">
+        <v>2691</v>
+      </c>
+      <c r="C109">
+        <v>10.50666896151448</v>
+      </c>
+      <c r="D109">
+        <v>10.16976770115814</v>
+      </c>
+      <c r="E109">
+        <v>10.84357022187082</v>
+      </c>
+      <c r="F109">
+        <v>10.5189434253802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B110">
+        <v>2692</v>
+      </c>
+      <c r="C110">
+        <v>10.51848192357075</v>
+      </c>
+      <c r="D110">
+        <v>10.18164292478413</v>
+      </c>
+      <c r="E110">
+        <v>10.85532092235737</v>
+      </c>
+      <c r="F110">
+        <v>10.51921358612749</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>2693</v>
+      </c>
+      <c r="C111">
+        <v>10.51916320450767</v>
+      </c>
+      <c r="D111">
+        <v>10.18238675001087</v>
+      </c>
+      <c r="E111">
+        <v>10.85593965900447</v>
+      </c>
+      <c r="F111">
+        <v>10.51975368876012</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B112">
+        <v>2694</v>
+      </c>
+      <c r="C112">
+        <v>10.5197083672168</v>
+      </c>
+      <c r="D112">
+        <v>10.18299442293287</v>
+      </c>
+      <c r="E112">
+        <v>10.85642231150072</v>
+      </c>
+      <c r="F112">
+        <v>10.53529110285502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B113">
+        <v>2695</v>
+      </c>
+      <c r="C113">
+        <v>10.53471203232055</v>
+      </c>
+      <c r="D113">
+        <v>10.19806005021792</v>
+      </c>
+      <c r="E113">
+        <v>10.87136401442319</v>
+      </c>
+      <c r="F113">
+        <v>10.52915856797116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B114">
+        <v>2696</v>
+      </c>
+      <c r="C114">
+        <v>10.52933281630225</v>
+      </c>
+      <c r="D114">
+        <v>10.19274320937001</v>
+      </c>
+      <c r="E114">
+        <v>10.86592242323448</v>
+      </c>
+      <c r="F114">
+        <v>10.53182950972996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B115">
+        <v>2697</v>
+      </c>
+      <c r="C115">
+        <v>10.53171618473743</v>
+      </c>
+      <c r="D115">
+        <v>10.19518897158604</v>
+      </c>
+      <c r="E115">
+        <v>10.86824339788882</v>
+      </c>
+      <c r="F115">
+        <v>10.52137224859553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B116">
+        <v>2698</v>
+      </c>
+      <c r="C116">
+        <v>10.52171603265107</v>
+      </c>
+      <c r="D116">
+        <v>10.18525096088269</v>
+      </c>
+      <c r="E116">
+        <v>10.85818110441944</v>
+      </c>
+      <c r="F116">
+        <v>10.52191118690014</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B117">
+        <v>2699</v>
+      </c>
+      <c r="C117">
+        <v>10.52187993698761</v>
+      </c>
+      <c r="D117">
+        <v>10.18547720620795</v>
+      </c>
+      <c r="E117">
+        <v>10.85828266776727</v>
+      </c>
+      <c r="F117">
+        <v>10.49764278388912</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B118">
+        <v>2700</v>
+      </c>
+      <c r="C118">
+        <v>10.49840016222216</v>
+      </c>
+      <c r="D118">
+        <v>10.16205788558097</v>
+      </c>
+      <c r="E118">
+        <v>10.83474243886334</v>
+      </c>
+      <c r="F118">
+        <v>10.51759152575562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119">
+        <v>10.51687902619671</v>
+      </c>
+      <c r="D119">
+        <v>10.18059885221722</v>
+      </c>
+      <c r="E119">
+        <v>10.8531592001762</v>
+      </c>
+      <c r="F119">
+        <v>10.49681439781386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B120">
+        <v>2702</v>
+      </c>
+      <c r="C120">
+        <v>10.49751835440403</v>
+      </c>
+      <c r="D120">
+        <v>10.16129956243346</v>
+      </c>
+      <c r="E120">
+        <v>10.83373714637461</v>
+      </c>
+      <c r="F120">
+        <v>10.46737989723881</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B121">
+        <v>2703</v>
+      </c>
+      <c r="C121">
+        <v>10.46846355208213</v>
+      </c>
+      <c r="D121">
+        <v>10.13230503014628</v>
+      </c>
+      <c r="E121">
+        <v>10.80462207401797</v>
+      </c>
+      <c r="F121">
+        <v>10.47587853196027</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B122">
+        <v>2704</v>
+      </c>
+      <c r="C122">
+        <v>10.4755844004764</v>
+      </c>
+      <c r="D122">
+        <v>10.13948792165475</v>
+      </c>
+      <c r="E122">
+        <v>10.81168087929806</v>
+      </c>
+      <c r="F122">
+        <v>10.48234558669395</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B123">
+        <v>2705</v>
+      </c>
+      <c r="C123">
+        <v>10.48207787374074</v>
+      </c>
+      <c r="D123">
+        <v>10.14604344432118</v>
+      </c>
+      <c r="E123">
+        <v>10.81811230316029</v>
+      </c>
+      <c r="F123">
+        <v>10.46993708005012</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B124">
+        <v>2706</v>
+      </c>
+      <c r="C124">
+        <v>10.47034813013958</v>
+      </c>
+      <c r="D124">
+        <v>10.13437546869354</v>
+      </c>
+      <c r="E124">
+        <v>10.80632079158562</v>
+      </c>
+      <c r="F124">
+        <v>10.4761605796282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B125">
+        <v>2707</v>
+      </c>
+      <c r="C125">
+        <v>10.47592641974342</v>
+      </c>
+      <c r="D125">
+        <v>10.14001576520825</v>
+      </c>
+      <c r="E125">
+        <v>10.81183707427859</v>
+      </c>
+      <c r="F125">
+        <v>10.47953896121983</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>2708</v>
       </c>
-      <c r="B3">
+      <c r="B126">
         <v>2708</v>
       </c>
-      <c r="C3">
+      <c r="C126">
         <v>10.47938420510374</v>
       </c>
-      <c r="D3">
+      <c r="D126">
         <v>10.14353555079623</v>
       </c>
-      <c r="E3">
+      <c r="E126">
         <v>10.81523285941125</v>
       </c>
-      <c r="F3">
+      <c r="F126">
         <v>10.46766435179911</v>
       </c>
     </row>
